--- a/paper simu/interval_counts.xlsx
+++ b/paper simu/interval_counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baptiste\Documents\PhD\Projects\RL_CS\paper simu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F308997-3E58-43D5-B53B-E0C6DBF23055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711481BA-B03F-454C-807F-7FE10249E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB71E39A-EF66-48CE-B2F2-5735E1E7A096}"/>
   </bookViews>
@@ -627,62 +627,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Annealing</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1072,62 +1017,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Random</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1546,62 +1436,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Quadruplets</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1992,62 +1827,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Quintuplets</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4646,8 +4426,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>4481</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
